--- a/StructureDefinition-ext-R5-Annotation.author.xlsx
+++ b/StructureDefinition-ext-R5-Annotation.author.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-Annotation.author.xlsx
+++ b/StructureDefinition-ext-R5-Annotation.author.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
 *  R4: `Annotation.author[x]` 0..1 `Reference(http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization), string`
 Following are the generation technical comments:
 Note that the target element context `Annotation.author[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Annotation`.
-Element `Annotation.author[x]` is mapped to FHIR R4 element `Annotation.author[x]`.
+Element `Annotation.author[x]` has is mapped to FHIR R4 element `Annotation.author[x]`, but has no comparisons.
 Note that the target element context `Annotation.author[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Annotation`.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-Annotation.author.xlsx
+++ b/StructureDefinition-ext-R5-Annotation.author.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -365,7 +365,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Annotation.author.xlsx
+++ b/StructureDefinition-ext-R5-Annotation.author.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
 *  R4: `Annotation.author[x]` 0..1 `Reference(http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization), string`
 Following are the generation technical comments:
 Note that the target element context `Annotation.author[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Annotation`.
-Element `Annotation.author[x]` has is mapped to FHIR R4 element `Annotation.author[x]`, but has no comparisons.
+Element `Annotation.author[x]` is mapped to FHIR R4 element `Annotation.author[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `Annotation.author[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Annotation`.</t>
   </si>
   <si>
@@ -129,7 +129,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -365,7 +365,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.90625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
